--- a/rawdata/Plant quality Iva 2015.xlsx
+++ b/rawdata/Plant quality Iva 2015.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wei-Ting\Dropbox\PhD_projects\herbivore_SG_Iva\data\rawdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wei-Ting\Dropbox\PhD_projects\herbivore_SG_Iva\rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="450" yWindow="90" windowWidth="8505" windowHeight="4530" activeTab="2"/>
+    <workbookView xWindow="450" yWindow="90" windowWidth="8505" windowHeight="4530" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -718,7 +718,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -775,7 +775,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1102,7 +1102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H104"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="A38" sqref="A38:IV38"/>
     </sheetView>
   </sheetViews>
@@ -3165,7 +3165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J2" sqref="J2:J12"/>
     </sheetView>
   </sheetViews>
@@ -5404,7 +5404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -5741,8 +5741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6145,6 +6145,9 @@
       <c r="G30">
         <v>8</v>
       </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="2">
